--- a/data/trans_orig/P36B13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_2023-Edad-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+          <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,61%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>51,35%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>15,97%</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>46,88%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>41,84%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>49,51%</t>
         </is>
       </c>
     </row>
@@ -1693,19 +1693,19 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>221</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>160144</v>
+        <v>160143</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>32,16%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>581715</v>
+        <v>581714</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>24,47%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>47,25%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>27,69%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>41,03%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>42,62%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>53,3%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>59,57%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>72,62%</t>
+          <t>71,13%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>27,04%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,82%</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
         <v>8721</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
